--- a/Excel/Report.xlsx
+++ b/Excel/Report.xlsx
@@ -79,10 +79,10 @@
     <t>Short Form Solar Agreement</t>
   </si>
   <si>
-    <t>Select All</t>
-  </si>
-  <si>
     <t>(C001) Forms and Workflows Extract</t>
+  </si>
+  <si>
+    <t>In Discussion-Neutral</t>
   </si>
 </sst>
 </file>
@@ -431,7 +431,7 @@
   <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -504,7 +504,7 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1">
         <v>44896</v>
@@ -527,7 +527,7 @@
         <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1">
         <v>44896</v>
@@ -541,7 +541,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" t="s">
         <v>4</v>
